--- a/duf_generalities.xlsx
+++ b/duf_generalities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BlueShift075\Documents\GitHub\Intelipost-Media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{53EDE373-0443-47C8-83EB-0ED8861083A6}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
+  <xr:revisionPtr documentId="13_ncr:1_{A14CA5AA-FE8E-4EAD-9648-2D2E7C8E6B28}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
   <bookViews>
     <workbookView windowHeight="9600" windowWidth="12800" xWindow="240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="120"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="370">
   <si>
     <t>V1</t>
   </si>
@@ -1109,6 +1109,27 @@
   </si>
   <si>
     <t>15,73</t>
+  </si>
+  <si>
+    <t>e_commerce</t>
+  </si>
+  <si>
+    <t>grouped</t>
+  </si>
+  <si>
+    <t>maximum</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>cost_of_goods</t>
+  </si>
+  <si>
+    <t>in</t>
   </si>
 </sst>
 </file>
@@ -1473,6 +1494,11 @@
           <t>table_type</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>e_commerce</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1480,6 +1506,11 @@
           <t>multi_volume_calculation_setting</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>grouped</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1506,6 +1537,11 @@
           <t>weight_type_selection</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>maximum</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1520,6 +1556,11 @@
           <t>exceeding_weight_mode</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1527,6 +1568,11 @@
           <t>extra_weight_round_mode</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1560,6 +1606,11 @@
           <t>gris_type</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1579,6 +1630,11 @@
           <t>gris_base</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>cost_of_goods</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3964,11 +4020,21 @@
           <t>tax_iss_mode</t>
         </is>
       </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
           <t>tax_iss_percentage</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>

--- a/duf_generalities.xlsx
+++ b/duf_generalities.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="12800" windowHeight="9600"/>
+    <workbookView windowHeight="9600" windowWidth="12800" xWindow="240" yWindow="120"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -39,13 +39,14 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
 </styleSheet>
 </file>
